--- a/theses/2024april/responses.xlsx
+++ b/theses/2024april/responses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claragarciasan/Documents/TUDelft/GitRepos/geo2020/theses/2024april/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C3B0B1-BDC8-1048-910F-4702F936D8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24368BD8-38D0-E140-B504-39B0C7D0D03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17020" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WaB3blYZ" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
   <si>
     <t>#</t>
   </si>
@@ -288,15 +288,33 @@
   <si>
     <t>08635d5430</t>
   </si>
+  <si>
+    <t>Solar potential analysis is of great help to energy transition through city planning, analysis of
+occupant behavior, assessing building energy performance, and scheduling the power grid.
+Computing high resolution (spatial, temporal, and semantic) solar irradiance is the key step
+of solar potential analysis. To determine the solar irradiance with high resolution, we can
+utilize 3D City Models (3DCM). Within the context of 3DCM, calculating shadows, sky-view
+factor (SVF), and ground view factor (GVF) are the most important and computationally
+intensive steps. Existing methods for the calculations, either apply simplifications or
+assumptions to make the computation achievable in a limited time. While some methods are
+accurate, but unable to scale to city-level. The thesis will be focused on developing a
+methodology that can achieve fast shadow solar irradiance with minimum assumptions. The
+expected methodology will be able to be applied to large areas such as the whole Netherlands</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -319,9 +337,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,12 +685,14 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" activeCellId="1" sqref="A3:XFD3 A5:XFD5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="15" width="9.5" style="1"/>
+    <col min="1" max="8" width="9.5" style="1"/>
+    <col min="9" max="9" width="255.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="9.5" style="1"/>
     <col min="16" max="16" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="9.5" style="1"/>
   </cols>
@@ -954,7 +977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
@@ -979,8 +1002,8 @@
       <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>78</v>
+      <c r="I6" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>81</v>

--- a/theses/2024april/responses.xlsx
+++ b/theses/2024april/responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claragarciasan/Documents/TUDelft/GitRepos/geo2020/theses/2024april/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24368BD8-38D0-E140-B504-39B0C7D0D03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94034765-EF07-7B48-A83C-01C42A006D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17020" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,17 +289,7 @@
     <t>08635d5430</t>
   </si>
   <si>
-    <t>Solar potential analysis is of great help to energy transition through city planning, analysis of
-occupant behavior, assessing building energy performance, and scheduling the power grid.
-Computing high resolution (spatial, temporal, and semantic) solar irradiance is the key step
-of solar potential analysis. To determine the solar irradiance with high resolution, we can
-utilize 3D City Models (3DCM). Within the context of 3DCM, calculating shadows, sky-view
-factor (SVF), and ground view factor (GVF) are the most important and computationally
-intensive steps. Existing methods for the calculations, either apply simplifications or
-assumptions to make the computation achievable in a limited time. While some methods are
-accurate, but unable to scale to city-level. The thesis will be focused on developing a
-methodology that can achieve fast shadow solar irradiance with minimum assumptions. The
-expected methodology will be able to be applied to large areas such as the whole Netherlands</t>
+    <t>Solar potential analysis is of great help to energy transition through city planning, analysis of occupant behavior, assessing building energy performance, and scheduling the power grid. Computing high resolution (spatial, temporal, and semantic) solar irradiance is the key step of solar potential analysis. To determine the solar irradiance with high resolution, we can utilize 3D City Models (3DCM). Within the context of 3DCM, calculating shadows, sky-view factor (SVF), and ground view factor (GVF) are the most important and computationally intensive steps. Existing methods for the calculations, either apply simplifications or assumptions to make the computation achievable in a limited time. While some methods are accurate, but unable to scale to city-level. The thesis will be focused on developing a methodology that can achieve fast shadow solar irradiance with minimum assumptions. The expected methodology will be able to be applied to large areas such as the whole Netherlands</t>
   </si>
 </sst>
 </file>
@@ -685,7 +675,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -977,7 +967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="60" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
